--- a/_Excel/ItemTablev1.0.3.xlsx
+++ b/_Excel/ItemTablev1.0.3.xlsx
@@ -1221,10 +1221,6 @@
     <t>티타늄 하의</t>
   </si>
   <si>
-    <t>조각 랜덤박스(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orderxx1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1497,10 +1493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>label(piecebox)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장착인벤(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,6 +1538,14 @@
   </si>
   <si>
     <t>파란 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(usepart)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물약(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="12" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>218</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>219</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -3187,7 +3187,7 @@
         <v>80400</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -3205,7 +3205,7 @@
         <v>80401</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -3271,9 +3271,9 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="13" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -3351,10 +3351,10 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>158</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>111</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -3394,10 +3394,10 @@
         <v>36</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>112</v>
@@ -3451,7 +3451,7 @@
       <c r="B5" s="18"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>137</v>
@@ -3510,7 +3510,7 @@
       <c r="D8" s="37"/>
       <c r="E8" s="10"/>
       <c r="F8" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3526,7 +3526,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -3562,7 +3562,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -3597,31 +3597,31 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="V10" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="W10" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="Y10" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Z10" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="AA10" s="21" t="s">
         <v>214</v>
-      </c>
-      <c r="AA10" s="21" t="s">
-        <v>215</v>
       </c>
       <c r="AB10" s="10"/>
     </row>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="13" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>76</v>
@@ -3756,7 +3756,7 @@
         <v>79</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>81</v>
@@ -3765,7 +3765,7 @@
         <v>82</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>83</v>
@@ -3783,13 +3783,13 @@
         <v>86</v>
       </c>
       <c r="S13" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="T13" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -3805,16 +3805,16 @@
         <v>20001</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>143</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S14" s="37">
         <v>10</v>
@@ -3876,16 +3876,16 @@
         <v>20002</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>143</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S15" s="37">
         <v>20</v>
@@ -3947,16 +3947,16 @@
         <v>20003</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>143</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S16" s="37">
         <v>30</v>
@@ -4018,10 +4018,10 @@
         <v>20004</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>111</v>
@@ -4089,10 +4089,10 @@
         <v>20005</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>111</v>
@@ -4160,10 +4160,10 @@
         <v>20006</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>111</v>
@@ -4281,13 +4281,13 @@
         <v>86</v>
       </c>
       <c r="S20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="T20" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="U20" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -4302,13 +4302,13 @@
         <v>200</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>145</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S21" s="37">
         <v>0</v>
@@ -4366,16 +4366,16 @@
         <v>201</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>143</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="35">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S22" s="37">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>202</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>111</v>
@@ -4492,10 +4492,10 @@
         <v>203</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>111</v>
@@ -4555,10 +4555,10 @@
         <v>204</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>111</v>
@@ -4618,10 +4618,10 @@
         <v>205</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>111</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>76</v>
@@ -4732,13 +4732,13 @@
         <v>86</v>
       </c>
       <c r="S27" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="T27" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="U27" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -4753,10 +4753,10 @@
         <v>300</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>111</v>
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S28" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T28" s="37">
         <v>0</v>
@@ -4817,16 +4817,16 @@
         <v>301</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>143</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J29" s="35">
         <v>0</v>
@@ -4863,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="S29" s="37" t="s">
         <v>199</v>
-      </c>
-      <c r="S29" s="37" t="s">
-        <v>200</v>
       </c>
       <c r="T29" s="37">
         <v>1</v>
@@ -4880,10 +4880,10 @@
         <v>302</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>111</v>
@@ -4929,7 +4929,7 @@
         <v>139</v>
       </c>
       <c r="S30" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T30" s="37">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>111</v>
@@ -4992,7 +4992,7 @@
         <v>140</v>
       </c>
       <c r="S31" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T31" s="37">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>304</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>111</v>
@@ -5055,7 +5055,7 @@
         <v>141</v>
       </c>
       <c r="S32" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T32" s="37">
         <v>1</v>
@@ -5069,10 +5069,10 @@
         <v>305</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>111</v>
@@ -5118,7 +5118,7 @@
         <v>142</v>
       </c>
       <c r="S33" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T33" s="37">
         <v>1</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="34" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="35" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>92</v>
@@ -5232,31 +5232,31 @@
         <v>10001</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>143</v>
+        <v>241</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>144</v>
       </c>
       <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J36" s="14">
         <v>0</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S36" s="35"/>
       <c r="T36" s="17"/>
@@ -5299,13 +5299,13 @@
         <v>109</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>113</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>144</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J37" s="14">
         <v>0</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="39" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>92</v>
@@ -5442,13 +5442,13 @@
         <v>106</v>
       </c>
       <c r="S39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="T39" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="U39" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -5463,16 +5463,16 @@
         <v>51000</v>
       </c>
       <c r="C40" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>170</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>143</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L40" s="37">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         <v>1</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S40" s="37">
         <v>10</v>
       </c>
       <c r="T40" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U40" s="37">
         <v>1</v>
@@ -5525,16 +5525,16 @@
         <v>51001</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>143</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L41" s="37">
         <v>0</v>
@@ -5570,13 +5570,13 @@
         <v>1</v>
       </c>
       <c r="R41" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S41" s="37">
         <v>20</v>
       </c>
       <c r="T41" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U41" s="37">
         <v>1</v>
@@ -5587,16 +5587,16 @@
         <v>51002</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>143</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L42" s="37">
         <v>0</v>
@@ -5632,13 +5632,13 @@
         <v>1</v>
       </c>
       <c r="R42" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S42" s="37">
         <v>30</v>
       </c>
       <c r="T42" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U42" s="37">
         <v>1</v>
@@ -5649,16 +5649,16 @@
         <v>51003</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>143</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L43" s="37">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>1</v>
       </c>
       <c r="R43" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S43" s="21">
         <v>40</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U43" s="21">
         <v>2</v>
@@ -5712,16 +5712,16 @@
         <v>51004</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>143</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L44" s="37">
         <v>0</v>
@@ -5757,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="R44" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S44" s="21">
         <v>50</v>
       </c>
       <c r="T44" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U44" s="21">
         <v>2</v>
@@ -5775,16 +5775,16 @@
         <v>51005</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>143</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L45" s="37">
         <v>0</v>
@@ -5820,13 +5820,13 @@
         <v>1</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S45" s="1">
         <v>60</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U45" s="1">
         <v>2</v>
@@ -5837,16 +5837,16 @@
         <v>51006</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>143</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L46" s="37">
         <v>0</v>
@@ -5882,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="R46" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S46" s="1">
         <v>70</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U46" s="1">
         <v>3</v>
@@ -5899,16 +5899,16 @@
         <v>51007</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>143</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L47" s="37">
         <v>0</v>
@@ -5944,13 +5944,13 @@
         <v>1</v>
       </c>
       <c r="R47" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S47" s="1">
         <v>80</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U47" s="1">
         <v>3</v>
@@ -5961,16 +5961,16 @@
         <v>51008</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>143</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L48" s="37">
         <v>0</v>
@@ -6006,13 +6006,13 @@
         <v>1</v>
       </c>
       <c r="R48" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S48" s="1">
         <v>90</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U48" s="1">
         <v>3</v>
@@ -6023,16 +6023,16 @@
         <v>51009</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>143</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L49" s="37">
         <v>0</v>
@@ -6068,13 +6068,13 @@
         <v>1</v>
       </c>
       <c r="R49" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S49" s="1">
         <v>100</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U49" s="1">
         <v>4</v>
@@ -6085,16 +6085,16 @@
         <v>51010</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>143</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L50" s="37">
         <v>0</v>
@@ -6130,13 +6130,13 @@
         <v>1</v>
       </c>
       <c r="R50" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S50" s="1">
         <v>110</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U50" s="1">
         <v>4</v>
@@ -6147,16 +6147,16 @@
         <v>51011</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>143</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L51" s="37">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>1</v>
       </c>
       <c r="R51" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S51" s="1">
         <v>120</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U51" s="1">
         <v>4</v>
@@ -6209,16 +6209,16 @@
         <v>51012</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>143</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L52" s="37">
         <v>0</v>
@@ -6254,13 +6254,13 @@
         <v>1</v>
       </c>
       <c r="R52" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S52" s="1">
         <v>130</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U52" s="1">
         <v>1</v>
@@ -6271,16 +6271,16 @@
         <v>51013</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>143</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L53" s="37">
         <v>0</v>
@@ -6316,13 +6316,13 @@
         <v>1</v>
       </c>
       <c r="R53" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S53" s="1">
         <v>140</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U53" s="1">
         <v>1</v>
@@ -6333,16 +6333,16 @@
         <v>51014</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>143</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L54" s="37">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>1</v>
       </c>
       <c r="R54" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S54" s="1">
         <v>150</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U54" s="1">
         <v>1</v>

--- a/_Excel/ItemTablev1.0.3.xlsx
+++ b/_Excel/ItemTablev1.0.3.xlsx
@@ -143,88 +143,6 @@
             <family val="2"/>
           </rPr>
           <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>만분률이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용된것임</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>..
-35 -&gt; 0.35%</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의미한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
         </r>
       </text>
     </comment>
@@ -506,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U20" authorId="0" shapeId="0">
+    <comment ref="U17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U27" authorId="0" shapeId="0">
+    <comment ref="U24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -675,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
   <si>
     <t>//</t>
   </si>
@@ -1073,9 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>box02</t>
-  </si>
-  <si>
     <t>판매요구 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1088,10 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동 조각의상 52종이나 응원의 소리 중 랜덤 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>label(tooltip)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,15 +1049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>은 헬멧</t>
-  </si>
-  <si>
-    <t>금 헬멧</t>
-  </si>
-  <si>
-    <t>티타늄 헬멧</t>
-  </si>
-  <si>
     <t>기본 등급(0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1221,10 +1123,6 @@
     <t>티타늄 하의</t>
   </si>
   <si>
-    <t>orderxx1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장착템(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1249,12 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>box01</t>
-  </si>
-  <si>
-    <t>동 조각 랜덤박스(4001)</t>
-  </si>
-  <si>
     <t>xxx1000 -&gt; 1/ 1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1267,64 +1159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>label(levelupreward)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨업 보상(510)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨업보상1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨업보상2</t>
-  </si>
-  <si>
-    <t>레벨업보상3</t>
-  </si>
-  <si>
-    <t>레벨업보상4</t>
-  </si>
-  <si>
-    <t>레벨업보상5</t>
-  </si>
-  <si>
-    <t>레벨업보상6</t>
-  </si>
-  <si>
-    <t>레벨업보상7</t>
-  </si>
-  <si>
-    <t>레벨업보상8</t>
-  </si>
-  <si>
-    <t>레벨업보상9</t>
-  </si>
-  <si>
-    <t>레벨업보상10</t>
-  </si>
-  <si>
-    <t>레벨업보상11</t>
-  </si>
-  <si>
-    <t>레벨업보상12</t>
-  </si>
-  <si>
-    <t>레벨업보상13</t>
-  </si>
-  <si>
-    <t>레벨업보상14</t>
-  </si>
-  <si>
-    <t>레벨업보상15</t>
-  </si>
-  <si>
     <t>lvup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1349,10 +1183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소모품(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>없음(-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1391,9 +1221,6 @@
     <t>돌 조각 랜덤박스(4000)</t>
   </si>
   <si>
-    <t>돌 조각의상 52종 중 랜덤 하나</t>
-  </si>
-  <si>
     <t>돌 등급(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,6 +1373,54 @@
   </si>
   <si>
     <t>물약(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plushp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP를 100회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP를 100회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(etcpart)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타템(510)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타인벤(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타템(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타템1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타템1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2792,13 +2667,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2806,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2814,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2822,7 +2697,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2830,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2838,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3024,7 @@
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -3163,13 +3038,13 @@
     </row>
     <row r="12" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -3187,7 +3062,7 @@
         <v>80400</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -3205,7 +3080,7 @@
         <v>80401</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -3268,12 +3143,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -3319,11 +3194,11 @@
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -3351,27 +3226,27 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="37" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -3394,10 +3269,10 @@
         <v>36</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>112</v>
@@ -3406,13 +3281,13 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3439,7 +3314,7 @@
         <v>113</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
@@ -3451,10 +3326,10 @@
       <c r="B5" s="18"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
@@ -3471,7 +3346,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="I6" s="37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
@@ -3510,7 +3385,7 @@
       <c r="D8" s="37"/>
       <c r="E8" s="10"/>
       <c r="F8" s="21" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3526,7 +3401,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -3562,7 +3437,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -3597,31 +3472,31 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="W10" s="21" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AB10" s="10"/>
     </row>
@@ -3696,16 +3571,16 @@
         <v>47</v>
       </c>
       <c r="L12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>48</v>
@@ -3729,7 +3604,7 @@
     </row>
     <row r="13" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>76</v>
@@ -3756,7 +3631,7 @@
         <v>79</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>81</v>
@@ -3765,7 +3640,7 @@
         <v>82</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>83</v>
@@ -3783,13 +3658,13 @@
         <v>86</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -3805,25 +3680,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H14" s="17">
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J14" s="17">
         <v>0</v>
@@ -3851,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="S14" s="37">
         <v>10</v>
@@ -3876,31 +3751,31 @@
         <v>20002</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J15" s="17">
         <v>0</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" ref="K15:K19" si="0">B15</f>
+        <f t="shared" ref="K15:K16" si="0">B15</f>
         <v>20002</v>
       </c>
       <c r="L15" s="35">
@@ -3922,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="S15" s="37">
         <v>20</v>
@@ -3947,25 +3822,25 @@
         <v>20003</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J16" s="17">
         <v>0</v>
@@ -3993,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="S16" s="37">
         <v>30</v>
@@ -4012,322 +3887,299 @@
       <c r="AA16" s="37"/>
       <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="37">
-        <v>20004</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
-        <f t="shared" si="0"/>
-        <v>20004</v>
-      </c>
-      <c r="L17" s="35">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="35">
-        <v>0</v>
-      </c>
-      <c r="O17" s="35">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
+    <row r="17" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37">
+        <v>200</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f>B18</f>
+        <v>200</v>
+      </c>
+      <c r="L18" s="35">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <v>0</v>
+      </c>
+      <c r="P18" s="37">
         <v>1</v>
       </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="S17" s="37">
-        <v>40</v>
-      </c>
-      <c r="T17" s="37">
-        <v>0</v>
-      </c>
-      <c r="U17" s="37">
-        <v>0</v>
-      </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="14"/>
-    </row>
-    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="37">
-        <v>20005</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <f t="shared" si="0"/>
-        <v>20005</v>
-      </c>
-      <c r="L18" s="35">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
-        <v>0</v>
-      </c>
-      <c r="O18" s="35">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
-        <v>1</v>
-      </c>
       <c r="Q18" s="13">
         <v>0</v>
       </c>
-      <c r="R18" s="14" t="s">
-        <v>141</v>
+      <c r="R18" s="37" t="s">
+        <v>201</v>
       </c>
       <c r="S18" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T18" s="37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U18" s="37">
         <v>0</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="14"/>
-    </row>
-    <row r="19" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="V18" s="38"/>
+    </row>
+    <row r="19" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
-        <v>20006</v>
+        <v>201</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>133</v>
+      <c r="F19" s="35" t="s">
+        <v>174</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="17">
+        <v>138</v>
+      </c>
+      <c r="H19" s="35">
         <v>0</v>
       </c>
       <c r="I19" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" ref="K19:K23" si="1">B19</f>
+        <v>201</v>
+      </c>
+      <c r="L19" s="35">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="S19" s="37">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37">
+        <v>20</v>
+      </c>
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37">
+        <v>202</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="35">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="L20" s="35">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="35">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="17">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="shared" si="0"/>
-        <v>20006</v>
-      </c>
-      <c r="L19" s="35">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="35">
-        <v>0</v>
-      </c>
-      <c r="O19" s="35">
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="14" t="s">
+      <c r="S20" s="37">
+        <v>0</v>
+      </c>
+      <c r="T20" s="37">
+        <v>20</v>
+      </c>
+      <c r="U20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="37">
+        <v>203</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="S19" s="37">
-        <v>60</v>
-      </c>
-      <c r="T19" s="37">
-        <v>0</v>
-      </c>
-      <c r="U19" s="37">
-        <v>0</v>
-      </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="14"/>
-    </row>
-    <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-    </row>
-    <row r="21" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37">
-        <v>200</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>145</v>
-      </c>
       <c r="G21" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H21" s="35">
         <v>0</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J21" s="35">
         <v>0</v>
       </c>
       <c r="K21" s="35">
-        <f>B21</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>203</v>
       </c>
       <c r="L21" s="35">
         <v>0</v>
@@ -4348,50 +4200,49 @@
         <v>0</v>
       </c>
       <c r="R21" s="37" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="S21" s="37">
         <v>0</v>
       </c>
       <c r="T21" s="37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U21" s="37">
         <v>0</v>
       </c>
-      <c r="V21" s="38"/>
-    </row>
-    <row r="22" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H22" s="35">
         <v>0</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="J22" s="35">
         <v>0</v>
       </c>
       <c r="K22" s="35">
-        <f t="shared" ref="K22:K26" si="1">B22</f>
-        <v>201</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="L22" s="35">
         <v>0</v>
@@ -4412,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="S22" s="37">
         <v>0</v>
@@ -4424,37 +4275,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H23" s="35">
         <v>0</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J23" s="35">
         <v>0</v>
       </c>
       <c r="K23" s="35">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L23" s="35">
         <v>0</v>
@@ -4475,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S23" s="37">
         <v>0</v>
@@ -4487,100 +4338,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
-        <v>203</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="35">
-        <v>0</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="J24" s="35">
-        <v>0</v>
-      </c>
-      <c r="K24" s="35">
-        <f t="shared" si="1"/>
-        <v>203</v>
-      </c>
-      <c r="L24" s="35">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="35">
-        <v>0</v>
-      </c>
-      <c r="O24" s="35">
-        <v>0</v>
-      </c>
-      <c r="P24" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>0</v>
-      </c>
-      <c r="R24" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="S24" s="37">
-        <v>0</v>
-      </c>
-      <c r="T24" s="37">
-        <v>20</v>
-      </c>
-      <c r="U24" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+    </row>
+    <row r="25" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H25" s="35">
         <v>0</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J25" s="35">
         <v>0</v>
       </c>
       <c r="K25" s="35">
-        <f t="shared" si="1"/>
-        <v>204</v>
+        <f>B25</f>
+        <v>300</v>
       </c>
       <c r="L25" s="35">
         <v>0</v>
@@ -4601,49 +4461,50 @@
         <v>0</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="S25" s="37">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="T25" s="37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U25" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="38"/>
+    </row>
+    <row r="26" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H26" s="35">
         <v>0</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J26" s="35">
         <v>0</v>
       </c>
       <c r="K26" s="35">
-        <f t="shared" si="1"/>
-        <v>205</v>
+        <f t="shared" ref="K26:K30" si="2">B26</f>
+        <v>301</v>
       </c>
       <c r="L26" s="35">
         <v>0</v>
@@ -4664,121 +4525,112 @@
         <v>0</v>
       </c>
       <c r="R26" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="S26" s="37">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="T26" s="37">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U26" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-    </row>
-    <row r="28" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="37">
+        <v>302</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="L27" s="35">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="35">
+        <v>0</v>
+      </c>
+      <c r="O27" s="35">
+        <v>0</v>
+      </c>
+      <c r="P27" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="T27" s="37">
+        <v>1</v>
+      </c>
+      <c r="U27" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H28" s="35">
         <v>0</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J28" s="35">
         <v>0</v>
       </c>
       <c r="K28" s="35">
-        <f>B28</f>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>303</v>
       </c>
       <c r="L28" s="35">
         <v>0</v>
@@ -4799,50 +4651,49 @@
         <v>0</v>
       </c>
       <c r="R28" s="37" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="S28" s="37" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="T28" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="37">
-        <v>0</v>
-      </c>
-      <c r="V28" s="38"/>
-    </row>
-    <row r="29" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H29" s="35">
         <v>0</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="J29" s="35">
         <v>0</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" ref="K29:K33" si="2">B29</f>
-        <v>301</v>
+        <f t="shared" si="2"/>
+        <v>304</v>
       </c>
       <c r="L29" s="35">
         <v>0</v>
@@ -4863,49 +4714,49 @@
         <v>0</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="T29" s="37">
         <v>1</v>
       </c>
       <c r="U29" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H30" s="35">
         <v>0</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J30" s="35">
         <v>0</v>
       </c>
       <c r="K30" s="35">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L30" s="35">
         <v>0</v>
@@ -4926,1467 +4777,420 @@
         <v>0</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S30" s="37" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="T30" s="37">
         <v>1</v>
       </c>
       <c r="U30" s="37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="37">
-        <v>303</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+    </row>
+    <row r="32" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="14">
+        <v>10001</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="35">
+        <v>10001</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>300</v>
+      </c>
+      <c r="P33" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="S33" s="35">
+        <v>100</v>
+      </c>
+      <c r="T33" s="17">
+        <v>0</v>
+      </c>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+    </row>
+    <row r="34" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41"/>
+      <c r="B34" s="37">
+        <v>10002</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="35">
+        <v>10002</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
+        <v>1000</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="S34" s="35">
+        <v>0</v>
+      </c>
+      <c r="T34" s="17">
+        <v>100</v>
+      </c>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+    </row>
+    <row r="35" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+    </row>
+    <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S36" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="35">
-        <v>0</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="35">
-        <v>0</v>
-      </c>
-      <c r="K31" s="35">
-        <f t="shared" si="2"/>
-        <v>303</v>
-      </c>
-      <c r="L31" s="35">
-        <v>0</v>
-      </c>
-      <c r="M31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="35">
-        <v>0</v>
-      </c>
-      <c r="O31" s="35">
-        <v>0</v>
-      </c>
-      <c r="P31" s="37">
+      <c r="T36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37">
+        <v>30001</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="35">
+        <v>10001</v>
+      </c>
+      <c r="L37" s="37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35">
+        <v>0</v>
+      </c>
+      <c r="O37" s="35">
+        <v>0</v>
+      </c>
+      <c r="P37" s="35">
         <v>1</v>
       </c>
-      <c r="Q31" s="13">
-        <v>0</v>
-      </c>
-      <c r="R31" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="S31" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="T31" s="37">
+      <c r="Q37" s="35">
         <v>1</v>
       </c>
-      <c r="U31" s="37">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37">
-        <v>304</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="35">
-        <v>0</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="35">
-        <v>0</v>
-      </c>
-      <c r="K32" s="35">
-        <f t="shared" si="2"/>
-        <v>304</v>
-      </c>
-      <c r="L32" s="35">
-        <v>0</v>
-      </c>
-      <c r="M32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="35">
-        <v>0</v>
-      </c>
-      <c r="O32" s="35">
-        <v>0</v>
-      </c>
-      <c r="P32" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>0</v>
-      </c>
-      <c r="R32" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="S32" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="T32" s="37">
-        <v>1</v>
-      </c>
-      <c r="U32" s="37">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37">
-        <v>305</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="35">
-        <v>0</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="35">
-        <v>0</v>
-      </c>
-      <c r="K33" s="35">
-        <f t="shared" si="2"/>
-        <v>305</v>
-      </c>
-      <c r="L33" s="35">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21">
-        <v>0</v>
-      </c>
-      <c r="N33" s="35">
-        <v>0</v>
-      </c>
-      <c r="O33" s="35">
-        <v>0</v>
-      </c>
-      <c r="P33" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>0</v>
-      </c>
-      <c r="R33" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="S33" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="T33" s="37">
-        <v>1</v>
-      </c>
-      <c r="U33" s="37">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-    </row>
-    <row r="35" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-    </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="14">
-        <v>10001</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="14">
-        <v>0</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="N36" s="17">
-        <v>0</v>
-      </c>
-      <c r="O36" s="14">
-        <v>300</v>
-      </c>
-      <c r="P36" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>0</v>
-      </c>
-      <c r="R36" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-    </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="37">
-        <v>10002</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="14">
-        <v>0</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="J37" s="14">
-        <v>0</v>
-      </c>
-      <c r="K37" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="N37" s="17">
-        <v>0</v>
-      </c>
-      <c r="O37" s="14">
-        <v>1000</v>
-      </c>
-      <c r="P37" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>0</v>
-      </c>
       <c r="R37" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-    </row>
-    <row r="38" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-    </row>
-    <row r="39" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-    </row>
-    <row r="40" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37">
-        <v>51000</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="37">
-        <v>0</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="37">
-        <v>0</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L40" s="37">
-        <v>0</v>
-      </c>
-      <c r="M40" s="37">
-        <v>0</v>
-      </c>
-      <c r="N40" s="35">
-        <v>0</v>
-      </c>
-      <c r="O40" s="35">
-        <v>0</v>
-      </c>
-      <c r="P40" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="35">
-        <v>1</v>
-      </c>
-      <c r="R40" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S40" s="37">
+        <v>228</v>
+      </c>
+      <c r="S37" s="37">
         <v>10</v>
       </c>
-      <c r="T40" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="U40" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37">
-        <v>51001</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="37">
-        <v>0</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="37">
-        <v>0</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L41" s="37">
-        <v>0</v>
-      </c>
-      <c r="M41" s="37">
-        <v>0</v>
-      </c>
-      <c r="N41" s="35">
-        <v>0</v>
-      </c>
-      <c r="O41" s="35">
-        <v>0</v>
-      </c>
-      <c r="P41" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="35">
-        <v>1</v>
-      </c>
-      <c r="R41" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S41" s="37">
-        <v>20</v>
-      </c>
-      <c r="T41" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="U41" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
-        <v>51002</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="37">
-        <v>0</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="37">
-        <v>0</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L42" s="37">
-        <v>0</v>
-      </c>
-      <c r="M42" s="37">
-        <v>0</v>
-      </c>
-      <c r="N42" s="35">
-        <v>0</v>
-      </c>
-      <c r="O42" s="35">
-        <v>0</v>
-      </c>
-      <c r="P42" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="35">
-        <v>1</v>
-      </c>
-      <c r="R42" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S42" s="37">
-        <v>30</v>
-      </c>
-      <c r="T42" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="U42" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B43" s="37">
-        <v>51003</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="37">
-        <v>0</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" s="37">
-        <v>0</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L43" s="37">
-        <v>0</v>
-      </c>
-      <c r="M43" s="37">
-        <v>0</v>
-      </c>
-      <c r="N43" s="35">
-        <v>0</v>
-      </c>
-      <c r="O43" s="35">
-        <v>0</v>
-      </c>
-      <c r="P43" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="35">
-        <v>1</v>
-      </c>
-      <c r="R43" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S43" s="21">
-        <v>40</v>
-      </c>
-      <c r="T43" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="U43" s="21">
-        <v>2</v>
-      </c>
-      <c r="V43" s="21"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B44" s="37">
-        <v>51004</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="37">
-        <v>0</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" s="37">
-        <v>0</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L44" s="37">
-        <v>0</v>
-      </c>
-      <c r="M44" s="37">
-        <v>0</v>
-      </c>
-      <c r="N44" s="35">
-        <v>0</v>
-      </c>
-      <c r="O44" s="35">
-        <v>0</v>
-      </c>
-      <c r="P44" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="35">
-        <v>1</v>
-      </c>
-      <c r="R44" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S44" s="21">
-        <v>50</v>
-      </c>
-      <c r="T44" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="U44" s="21">
-        <v>2</v>
-      </c>
-      <c r="V44" s="21"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B45" s="37">
-        <v>51005</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="37" t="s">
+      <c r="T37" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G45" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="37">
-        <v>0</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J45" s="37">
-        <v>0</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L45" s="37">
-        <v>0</v>
-      </c>
-      <c r="M45" s="37">
-        <v>0</v>
-      </c>
-      <c r="N45" s="35">
-        <v>0</v>
-      </c>
-      <c r="O45" s="35">
-        <v>0</v>
-      </c>
-      <c r="P45" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="35">
-        <v>1</v>
-      </c>
-      <c r="R45" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S45" s="1">
-        <v>60</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B46" s="37">
-        <v>51006</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="37">
-        <v>0</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" s="37">
-        <v>0</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L46" s="37">
-        <v>0</v>
-      </c>
-      <c r="M46" s="37">
-        <v>0</v>
-      </c>
-      <c r="N46" s="35">
-        <v>0</v>
-      </c>
-      <c r="O46" s="35">
-        <v>0</v>
-      </c>
-      <c r="P46" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="35">
-        <v>1</v>
-      </c>
-      <c r="R46" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S46" s="1">
-        <v>70</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B47" s="37">
-        <v>51007</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" s="37">
-        <v>0</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J47" s="37">
-        <v>0</v>
-      </c>
-      <c r="K47" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L47" s="37">
-        <v>0</v>
-      </c>
-      <c r="M47" s="37">
-        <v>0</v>
-      </c>
-      <c r="N47" s="35">
-        <v>0</v>
-      </c>
-      <c r="O47" s="35">
-        <v>0</v>
-      </c>
-      <c r="P47" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="35">
-        <v>1</v>
-      </c>
-      <c r="R47" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S47" s="1">
-        <v>80</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
-        <v>51008</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="37">
-        <v>0</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J48" s="37">
-        <v>0</v>
-      </c>
-      <c r="K48" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L48" s="37">
-        <v>0</v>
-      </c>
-      <c r="M48" s="37">
-        <v>0</v>
-      </c>
-      <c r="N48" s="35">
-        <v>0</v>
-      </c>
-      <c r="O48" s="35">
-        <v>0</v>
-      </c>
-      <c r="P48" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="35">
-        <v>1</v>
-      </c>
-      <c r="R48" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S48" s="1">
-        <v>90</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B49" s="37">
-        <v>51009</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" s="37">
-        <v>0</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" s="37">
-        <v>0</v>
-      </c>
-      <c r="K49" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L49" s="37">
-        <v>0</v>
-      </c>
-      <c r="M49" s="37">
-        <v>0</v>
-      </c>
-      <c r="N49" s="35">
-        <v>0</v>
-      </c>
-      <c r="O49" s="35">
-        <v>0</v>
-      </c>
-      <c r="P49" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="35">
-        <v>1</v>
-      </c>
-      <c r="R49" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S49" s="1">
-        <v>100</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B50" s="37">
-        <v>51010</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="37">
-        <v>0</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J50" s="37">
-        <v>0</v>
-      </c>
-      <c r="K50" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L50" s="37">
-        <v>0</v>
-      </c>
-      <c r="M50" s="37">
-        <v>0</v>
-      </c>
-      <c r="N50" s="35">
-        <v>0</v>
-      </c>
-      <c r="O50" s="35">
-        <v>0</v>
-      </c>
-      <c r="P50" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="35">
-        <v>1</v>
-      </c>
-      <c r="R50" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S50" s="1">
-        <v>110</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U50" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B51" s="37">
-        <v>51011</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="37">
-        <v>0</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J51" s="37">
-        <v>0</v>
-      </c>
-      <c r="K51" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L51" s="37">
-        <v>0</v>
-      </c>
-      <c r="M51" s="37">
-        <v>0</v>
-      </c>
-      <c r="N51" s="35">
-        <v>0</v>
-      </c>
-      <c r="O51" s="35">
-        <v>0</v>
-      </c>
-      <c r="P51" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="35">
-        <v>1</v>
-      </c>
-      <c r="R51" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S51" s="1">
-        <v>120</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B52" s="37">
-        <v>51012</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="37">
-        <v>0</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J52" s="37">
-        <v>0</v>
-      </c>
-      <c r="K52" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L52" s="37">
-        <v>0</v>
-      </c>
-      <c r="M52" s="37">
-        <v>0</v>
-      </c>
-      <c r="N52" s="35">
-        <v>0</v>
-      </c>
-      <c r="O52" s="35">
-        <v>0</v>
-      </c>
-      <c r="P52" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="35">
-        <v>1</v>
-      </c>
-      <c r="R52" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S52" s="1">
-        <v>130</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="U52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B53" s="37">
-        <v>51013</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H53" s="37">
-        <v>0</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J53" s="37">
-        <v>0</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L53" s="37">
-        <v>0</v>
-      </c>
-      <c r="M53" s="37">
-        <v>0</v>
-      </c>
-      <c r="N53" s="35">
-        <v>0</v>
-      </c>
-      <c r="O53" s="35">
-        <v>0</v>
-      </c>
-      <c r="P53" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="35">
-        <v>1</v>
-      </c>
-      <c r="R53" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S53" s="1">
-        <v>140</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="U53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
-        <v>51014</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="37">
-        <v>0</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J54" s="37">
-        <v>0</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L54" s="37">
-        <v>0</v>
-      </c>
-      <c r="M54" s="37">
-        <v>0</v>
-      </c>
-      <c r="N54" s="35">
-        <v>0</v>
-      </c>
-      <c r="O54" s="35">
-        <v>0</v>
-      </c>
-      <c r="P54" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="35">
-        <v>1</v>
-      </c>
-      <c r="R54" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="S54" s="1">
-        <v>150</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="U54" s="1">
+      <c r="U37" s="37">
         <v>1</v>
       </c>
     </row>

--- a/_Excel/ItemTablev1.0.3.xlsx
+++ b/_Excel/ItemTablev1.0.3.xlsx
@@ -143,6 +143,88 @@
             <family val="2"/>
           </rPr>
           <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만분률이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용된것임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>..
+35 -&gt; 0.35%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
         </r>
       </text>
     </comment>
@@ -424,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U17" authorId="0" shapeId="0">
+    <comment ref="U20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U24" authorId="0" shapeId="0">
+    <comment ref="U27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +675,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="245">
   <si>
     <t>//</t>
   </si>
@@ -991,6 +1073,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>box02</t>
+  </si>
+  <si>
     <t>판매요구 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,6 +1088,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>동 조각의상 52종이나 응원의 소리 중 랜덤 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>label(tooltip)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1049,6 +1138,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>은 헬멧</t>
+  </si>
+  <si>
+    <t>금 헬멧</t>
+  </si>
+  <si>
+    <t>티타늄 헬멧</t>
+  </si>
+  <si>
     <t>기본 등급(0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1123,6 +1221,10 @@
     <t>티타늄 하의</t>
   </si>
   <si>
+    <t>orderxx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>장착템(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,6 +1249,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>box01</t>
+  </si>
+  <si>
+    <t>동 조각 랜덤박스(4001)</t>
+  </si>
+  <si>
     <t>xxx1000 -&gt; 1/ 1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1159,6 +1267,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>label(levelupreward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 보상(510)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업보상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업보상2</t>
+  </si>
+  <si>
+    <t>레벨업보상3</t>
+  </si>
+  <si>
+    <t>레벨업보상4</t>
+  </si>
+  <si>
+    <t>레벨업보상5</t>
+  </si>
+  <si>
+    <t>레벨업보상6</t>
+  </si>
+  <si>
+    <t>레벨업보상7</t>
+  </si>
+  <si>
+    <t>레벨업보상8</t>
+  </si>
+  <si>
+    <t>레벨업보상9</t>
+  </si>
+  <si>
+    <t>레벨업보상10</t>
+  </si>
+  <si>
+    <t>레벨업보상11</t>
+  </si>
+  <si>
+    <t>레벨업보상12</t>
+  </si>
+  <si>
+    <t>레벨업보상13</t>
+  </si>
+  <si>
+    <t>레벨업보상14</t>
+  </si>
+  <si>
+    <t>레벨업보상15</t>
+  </si>
+  <si>
     <t>lvup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1183,6 +1349,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>소모품(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>없음(-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1221,6 +1391,9 @@
     <t>돌 조각 랜덤박스(4000)</t>
   </si>
   <si>
+    <t>돌 조각의상 52종 중 랜덤 하나</t>
+  </si>
+  <si>
     <t>돌 등급(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,54 +1546,6 @@
   </si>
   <si>
     <t>물약(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plushp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP를 100회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP를 100회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모품(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label(etcpart)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타템(510)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타인벤(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타템(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타템1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타템1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2667,13 +2792,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2681,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2689,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2697,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2705,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2713,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3149,7 @@
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -3038,13 +3163,13 @@
     </row>
     <row r="12" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -3062,7 +3187,7 @@
         <v>80400</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -3080,7 +3205,7 @@
         <v>80401</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -3143,12 +3268,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="13" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -3194,11 +3319,11 @@
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="37" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -3226,27 +3351,27 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="37" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -3269,10 +3394,10 @@
         <v>36</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>112</v>
@@ -3281,13 +3406,13 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3314,7 +3439,7 @@
         <v>113</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
@@ -3326,10 +3451,10 @@
       <c r="B5" s="18"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
@@ -3346,7 +3471,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="I6" s="37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
@@ -3385,7 +3510,7 @@
       <c r="D8" s="37"/>
       <c r="E8" s="10"/>
       <c r="F8" s="21" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3401,7 +3526,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -3437,7 +3562,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -3472,31 +3597,31 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="1" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="W10" s="21" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="AB10" s="10"/>
     </row>
@@ -3571,16 +3696,16 @@
         <v>47</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>48</v>
@@ -3604,7 +3729,7 @@
     </row>
     <row r="13" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>76</v>
@@ -3631,7 +3756,7 @@
         <v>79</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>81</v>
@@ -3640,7 +3765,7 @@
         <v>82</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>83</v>
@@ -3658,13 +3783,13 @@
         <v>86</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -3680,25 +3805,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H14" s="17">
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J14" s="17">
         <v>0</v>
@@ -3726,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="S14" s="37">
         <v>10</v>
@@ -3751,31 +3876,31 @@
         <v>20002</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J15" s="17">
         <v>0</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" ref="K15:K16" si="0">B15</f>
+        <f t="shared" ref="K15:K19" si="0">B15</f>
         <v>20002</v>
       </c>
       <c r="L15" s="35">
@@ -3797,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="S15" s="37">
         <v>20</v>
@@ -3822,25 +3947,25 @@
         <v>20003</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J16" s="17">
         <v>0</v>
@@ -3868,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="S16" s="37">
         <v>30</v>
@@ -3887,625 +4012,639 @@
       <c r="AA16" s="37"/>
       <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
+    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="37">
+        <v>20004</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
+        <f t="shared" si="0"/>
+        <v>20004</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="35">
+        <v>0</v>
+      </c>
+      <c r="O17" s="35">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="37">
+        <v>40</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0</v>
+      </c>
+      <c r="V17" s="37"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="14"/>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="37">
+        <v>20005</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>20005</v>
+      </c>
+      <c r="L18" s="35">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="37">
         <v>50</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-    </row>
-    <row r="18" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
-        <v>200</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <f>B18</f>
-        <v>200</v>
-      </c>
-      <c r="L18" s="35">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
-        <v>0</v>
-      </c>
-      <c r="O18" s="35">
-        <v>0</v>
-      </c>
-      <c r="P18" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>0</v>
-      </c>
-      <c r="R18" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="S18" s="37">
-        <v>0</v>
-      </c>
       <c r="T18" s="37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U18" s="37">
         <v>0</v>
       </c>
-      <c r="V18" s="38"/>
-    </row>
-    <row r="19" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="37"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="14"/>
+    </row>
+    <row r="19" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="37">
-        <v>201</v>
+        <v>20006</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>174</v>
+      <c r="F19" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="35">
+        <v>143</v>
+      </c>
+      <c r="H19" s="17">
         <v>0</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="35">
+        <v>134</v>
+      </c>
+      <c r="J19" s="17">
         <v>0</v>
       </c>
       <c r="K19" s="35">
-        <f t="shared" ref="K19:K23" si="1">B19</f>
+        <f t="shared" si="0"/>
+        <v>20006</v>
+      </c>
+      <c r="L19" s="35">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="37">
+        <v>60</v>
+      </c>
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="14"/>
+    </row>
+    <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="37">
+        <v>200</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="35">
+        <f>B21</f>
+        <v>200</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35">
+        <v>0</v>
+      </c>
+      <c r="P21" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="S21" s="37">
+        <v>0</v>
+      </c>
+      <c r="T21" s="37">
+        <v>10</v>
+      </c>
+      <c r="U21" s="37">
+        <v>0</v>
+      </c>
+      <c r="V21" s="38"/>
+    </row>
+    <row r="22" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="37">
         <v>201</v>
       </c>
-      <c r="L19" s="35">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="35">
-        <v>0</v>
-      </c>
-      <c r="O19" s="35">
-        <v>0</v>
-      </c>
-      <c r="P19" s="37">
+      <c r="C22" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="35">
+        <f t="shared" ref="K22:K26" si="1">B22</f>
+        <v>201</v>
+      </c>
+      <c r="L22" s="35">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="35">
+        <v>0</v>
+      </c>
+      <c r="O22" s="35">
+        <v>0</v>
+      </c>
+      <c r="P22" s="37">
         <v>1</v>
       </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19" s="37">
-        <v>0</v>
-      </c>
-      <c r="T19" s="37">
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="S22" s="37">
+        <v>0</v>
+      </c>
+      <c r="T22" s="37">
         <v>20</v>
       </c>
-      <c r="U19" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37">
+      <c r="U22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="37">
         <v>202</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="C23" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="35">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35">
+      <c r="F23" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="35">
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="L20" s="35">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="35">
-        <v>0</v>
-      </c>
-      <c r="O20" s="35">
-        <v>0</v>
-      </c>
-      <c r="P20" s="37">
+      <c r="L23" s="35">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="35">
+        <v>0</v>
+      </c>
+      <c r="O23" s="35">
+        <v>0</v>
+      </c>
+      <c r="P23" s="37">
         <v>1</v>
       </c>
-      <c r="Q20" s="13">
-        <v>0</v>
-      </c>
-      <c r="R20" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" s="37">
-        <v>0</v>
-      </c>
-      <c r="T20" s="37">
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" s="37">
+        <v>0</v>
+      </c>
+      <c r="T23" s="37">
         <v>20</v>
       </c>
-      <c r="U20" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37">
+      <c r="U23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="37">
         <v>203</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="C24" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="35">
+      <c r="F24" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="35">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="35">
+        <v>0</v>
+      </c>
+      <c r="K24" s="35">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="L21" s="35">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="35">
-        <v>0</v>
-      </c>
-      <c r="O21" s="35">
-        <v>0</v>
-      </c>
-      <c r="P21" s="37">
+      <c r="L24" s="35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="35">
+        <v>0</v>
+      </c>
+      <c r="O24" s="35">
+        <v>0</v>
+      </c>
+      <c r="P24" s="37">
         <v>1</v>
       </c>
-      <c r="Q21" s="13">
-        <v>0</v>
-      </c>
-      <c r="R21" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="S21" s="37">
-        <v>0</v>
-      </c>
-      <c r="T21" s="37">
+      <c r="Q24" s="13">
+        <v>0</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="37">
+        <v>0</v>
+      </c>
+      <c r="T24" s="37">
         <v>20</v>
       </c>
-      <c r="U21" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37">
+      <c r="U24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="37">
         <v>204</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="21" t="s">
+      <c r="C25" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F25" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="35">
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+      <c r="K25" s="35">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="L22" s="35">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="35">
-        <v>0</v>
-      </c>
-      <c r="O22" s="35">
-        <v>0</v>
-      </c>
-      <c r="P22" s="37">
+      <c r="L25" s="35">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="35">
+        <v>0</v>
+      </c>
+      <c r="O25" s="35">
+        <v>0</v>
+      </c>
+      <c r="P25" s="37">
         <v>1</v>
       </c>
-      <c r="Q22" s="13">
-        <v>0</v>
-      </c>
-      <c r="R22" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="S22" s="37">
-        <v>0</v>
-      </c>
-      <c r="T22" s="37">
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="37">
+        <v>0</v>
+      </c>
+      <c r="T25" s="37">
         <v>20</v>
       </c>
-      <c r="U22" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37">
+      <c r="U25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="37">
         <v>205</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="C26" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="F26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35">
+      <c r="J26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="35">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="L23" s="35">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="35">
-        <v>0</v>
-      </c>
-      <c r="O23" s="35">
-        <v>0</v>
-      </c>
-      <c r="P23" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>0</v>
-      </c>
-      <c r="R23" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="S23" s="37">
-        <v>0</v>
-      </c>
-      <c r="T23" s="37">
-        <v>20</v>
-      </c>
-      <c r="U23" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37">
-        <v>300</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="35">
-        <f>B25</f>
-        <v>300</v>
-      </c>
-      <c r="L25" s="35">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="35">
-        <v>0</v>
-      </c>
-      <c r="O25" s="35">
-        <v>0</v>
-      </c>
-      <c r="P25" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
-      <c r="R25" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="S25" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="T25" s="37">
-        <v>0</v>
-      </c>
-      <c r="U25" s="37">
-        <v>0</v>
-      </c>
-      <c r="V25" s="38"/>
-    </row>
-    <row r="26" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37">
-        <v>301</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="35">
-        <v>0</v>
-      </c>
-      <c r="K26" s="35">
-        <f t="shared" ref="K26:K30" si="2">B26</f>
-        <v>301</v>
-      </c>
       <c r="L26" s="35">
         <v>0</v>
       </c>
@@ -4525,672 +4664,1729 @@
         <v>0</v>
       </c>
       <c r="R26" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="S26" s="37" t="s">
-        <v>172</v>
+        <v>142</v>
+      </c>
+      <c r="S26" s="37">
+        <v>0</v>
       </c>
       <c r="T26" s="37">
+        <v>20</v>
+      </c>
+      <c r="U26" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+    </row>
+    <row r="28" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="37">
+        <v>300</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K28" s="35">
+        <f>B28</f>
+        <v>300</v>
+      </c>
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <v>0</v>
+      </c>
+      <c r="O28" s="35">
+        <v>0</v>
+      </c>
+      <c r="P28" s="37">
         <v>1</v>
       </c>
-      <c r="U26" s="37">
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" s="37">
+        <v>0</v>
+      </c>
+      <c r="U28" s="37">
+        <v>0</v>
+      </c>
+      <c r="V28" s="38"/>
+    </row>
+    <row r="29" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="37">
+        <v>301</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="35">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" ref="K29:K33" si="2">B29</f>
+        <v>301</v>
+      </c>
+      <c r="L29" s="35">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <v>0</v>
+      </c>
+      <c r="O29" s="35">
+        <v>0</v>
+      </c>
+      <c r="P29" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="T29" s="37">
+        <v>1</v>
+      </c>
+      <c r="U29" s="37">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37">
+    <row r="30" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="37">
         <v>302</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="C30" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="35">
-        <v>0</v>
-      </c>
-      <c r="K27" s="35">
+      <c r="F30" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="35">
+        <v>0</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
-      <c r="L27" s="35">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="35">
-        <v>0</v>
-      </c>
-      <c r="O27" s="35">
-        <v>0</v>
-      </c>
-      <c r="P27" s="37">
+      <c r="L30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <v>0</v>
+      </c>
+      <c r="P30" s="37">
         <v>1</v>
       </c>
-      <c r="Q27" s="13">
-        <v>0</v>
-      </c>
-      <c r="R27" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="T27" s="37">
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="T30" s="37">
         <v>1</v>
       </c>
-      <c r="U27" s="37">
+      <c r="U30" s="37">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37">
+    <row r="31" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="37">
         <v>303</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="C31" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="35">
-        <v>0</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="35">
-        <v>0</v>
-      </c>
-      <c r="K28" s="35">
+      <c r="F31" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="35">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+      <c r="K31" s="35">
         <f t="shared" si="2"/>
         <v>303</v>
       </c>
-      <c r="L28" s="35">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="35">
-        <v>0</v>
-      </c>
-      <c r="O28" s="35">
-        <v>0</v>
-      </c>
-      <c r="P28" s="37">
+      <c r="L31" s="35">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0</v>
+      </c>
+      <c r="N31" s="35">
+        <v>0</v>
+      </c>
+      <c r="O31" s="35">
+        <v>0</v>
+      </c>
+      <c r="P31" s="37">
         <v>1</v>
       </c>
-      <c r="Q28" s="13">
-        <v>0</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="T28" s="37">
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="T31" s="37">
         <v>1</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U31" s="37">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37">
+    <row r="32" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="37">
         <v>304</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="37" t="s">
+      <c r="C32" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="35">
-        <v>0</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="35">
-        <v>0</v>
-      </c>
-      <c r="K29" s="35">
+      <c r="G32" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="35">
+        <v>0</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="35">
+        <v>0</v>
+      </c>
+      <c r="K32" s="35">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="L29" s="35">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="35">
-        <v>0</v>
-      </c>
-      <c r="O29" s="35">
-        <v>0</v>
-      </c>
-      <c r="P29" s="37">
+      <c r="L32" s="35">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>0</v>
+      </c>
+      <c r="N32" s="35">
+        <v>0</v>
+      </c>
+      <c r="O32" s="35">
+        <v>0</v>
+      </c>
+      <c r="P32" s="37">
         <v>1</v>
       </c>
-      <c r="Q29" s="13">
-        <v>0</v>
-      </c>
-      <c r="R29" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="S29" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="T29" s="37">
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" s="37">
         <v>1</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U32" s="37">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+    <row r="33" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="37">
         <v>305</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="21" t="s">
+      <c r="C33" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="F33" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="35">
-        <v>0</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="35">
-        <v>0</v>
-      </c>
-      <c r="K30" s="35">
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="35">
         <f t="shared" si="2"/>
         <v>305</v>
       </c>
-      <c r="L30" s="35">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="35">
-        <v>0</v>
-      </c>
-      <c r="O30" s="35">
-        <v>0</v>
-      </c>
-      <c r="P30" s="37">
+      <c r="L33" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>0</v>
+      </c>
+      <c r="N33" s="35">
+        <v>0</v>
+      </c>
+      <c r="O33" s="35">
+        <v>0</v>
+      </c>
+      <c r="P33" s="37">
         <v>1</v>
       </c>
-      <c r="Q30" s="13">
-        <v>0</v>
-      </c>
-      <c r="R30" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="S30" s="37" t="s">
+      <c r="Q33" s="13">
+        <v>0</v>
+      </c>
+      <c r="R33" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="T33" s="37">
+        <v>1</v>
+      </c>
+      <c r="U33" s="37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+    </row>
+    <row r="35" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="41"/>
+      <c r="B36" s="14">
+        <v>10001</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
+        <v>300</v>
+      </c>
+      <c r="P36" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>0</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="S36" s="35"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+    </row>
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="37">
+        <v>10002</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
+        <v>1000</v>
+      </c>
+      <c r="P37" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>0</v>
+      </c>
+      <c r="R37" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="35"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+    </row>
+    <row r="38" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+    </row>
+    <row r="39" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37">
+        <v>51000</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="T30" s="37">
+      <c r="G40" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="37">
+        <v>0</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="37">
+        <v>0</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L40" s="37">
+        <v>0</v>
+      </c>
+      <c r="M40" s="37">
+        <v>0</v>
+      </c>
+      <c r="N40" s="35">
+        <v>0</v>
+      </c>
+      <c r="O40" s="35">
+        <v>0</v>
+      </c>
+      <c r="P40" s="35">
         <v>1</v>
       </c>
-      <c r="U30" s="37">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-    </row>
-    <row r="32" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="8" t="s">
+      <c r="Q40" s="35">
+        <v>1</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S40" s="37">
+        <v>10</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="U40" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="37">
+        <v>51001</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="37">
+        <v>0</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="37">
+        <v>0</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="37">
+        <v>0</v>
+      </c>
+      <c r="M41" s="37">
+        <v>0</v>
+      </c>
+      <c r="N41" s="35">
+        <v>0</v>
+      </c>
+      <c r="O41" s="35">
+        <v>0</v>
+      </c>
+      <c r="P41" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="35">
+        <v>1</v>
+      </c>
+      <c r="R41" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S41" s="37">
+        <v>20</v>
+      </c>
+      <c r="T41" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="U41" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="37">
+        <v>51002</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="37">
+        <v>0</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="37">
+        <v>0</v>
+      </c>
+      <c r="K42" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L42" s="37">
+        <v>0</v>
+      </c>
+      <c r="M42" s="37">
+        <v>0</v>
+      </c>
+      <c r="N42" s="35">
+        <v>0</v>
+      </c>
+      <c r="O42" s="35">
+        <v>0</v>
+      </c>
+      <c r="P42" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="35">
+        <v>1</v>
+      </c>
+      <c r="R42" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S42" s="37">
+        <v>30</v>
+      </c>
+      <c r="T42" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="U42" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B43" s="37">
+        <v>51003</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="37">
+        <v>0</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="37">
+        <v>0</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="37">
+        <v>0</v>
+      </c>
+      <c r="M43" s="37">
+        <v>0</v>
+      </c>
+      <c r="N43" s="35">
+        <v>0</v>
+      </c>
+      <c r="O43" s="35">
+        <v>0</v>
+      </c>
+      <c r="P43" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="35">
+        <v>1</v>
+      </c>
+      <c r="R43" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S43" s="21">
+        <v>40</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="U43" s="21">
+        <v>2</v>
+      </c>
+      <c r="V43" s="21"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B44" s="37">
+        <v>51004</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="37">
+        <v>0</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="37">
+        <v>0</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" s="37">
+        <v>0</v>
+      </c>
+      <c r="M44" s="37">
+        <v>0</v>
+      </c>
+      <c r="N44" s="35">
+        <v>0</v>
+      </c>
+      <c r="O44" s="35">
+        <v>0</v>
+      </c>
+      <c r="P44" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="35">
+        <v>1</v>
+      </c>
+      <c r="R44" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S44" s="21">
+        <v>50</v>
+      </c>
+      <c r="T44" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="U44" s="21">
+        <v>2</v>
+      </c>
+      <c r="V44" s="21"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B45" s="37">
+        <v>51005</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="37">
+        <v>0</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="37">
+        <v>0</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L45" s="37">
+        <v>0</v>
+      </c>
+      <c r="M45" s="37">
+        <v>0</v>
+      </c>
+      <c r="N45" s="35">
+        <v>0</v>
+      </c>
+      <c r="O45" s="35">
+        <v>0</v>
+      </c>
+      <c r="P45" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="35">
+        <v>1</v>
+      </c>
+      <c r="R45" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S45" s="1">
+        <v>60</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B46" s="37">
+        <v>51006</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="37">
+        <v>0</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="37">
+        <v>0</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0</v>
+      </c>
+      <c r="M46" s="37">
+        <v>0</v>
+      </c>
+      <c r="N46" s="35">
+        <v>0</v>
+      </c>
+      <c r="O46" s="35">
+        <v>0</v>
+      </c>
+      <c r="P46" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="35">
+        <v>1</v>
+      </c>
+      <c r="R46" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S46" s="1">
+        <v>70</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B47" s="37">
+        <v>51007</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="37">
+        <v>0</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="37">
+        <v>0</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L47" s="37">
+        <v>0</v>
+      </c>
+      <c r="M47" s="37">
+        <v>0</v>
+      </c>
+      <c r="N47" s="35">
+        <v>0</v>
+      </c>
+      <c r="O47" s="35">
+        <v>0</v>
+      </c>
+      <c r="P47" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="35">
+        <v>1</v>
+      </c>
+      <c r="R47" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S47" s="1">
+        <v>80</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B48" s="37">
+        <v>51008</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="37">
+        <v>0</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="37">
+        <v>0</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L48" s="37">
+        <v>0</v>
+      </c>
+      <c r="M48" s="37">
+        <v>0</v>
+      </c>
+      <c r="N48" s="35">
+        <v>0</v>
+      </c>
+      <c r="O48" s="35">
+        <v>0</v>
+      </c>
+      <c r="P48" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="35">
+        <v>1</v>
+      </c>
+      <c r="R48" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S48" s="1">
+        <v>90</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B49" s="37">
+        <v>51009</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="37">
+        <v>0</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="37">
+        <v>0</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L49" s="37">
+        <v>0</v>
+      </c>
+      <c r="M49" s="37">
+        <v>0</v>
+      </c>
+      <c r="N49" s="35">
+        <v>0</v>
+      </c>
+      <c r="O49" s="35">
+        <v>0</v>
+      </c>
+      <c r="P49" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="35">
+        <v>1</v>
+      </c>
+      <c r="R49" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S49" s="1">
         <v>100</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-    </row>
-    <row r="33" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="14">
-        <v>10001</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="J33" s="14">
-        <v>0</v>
-      </c>
-      <c r="K33" s="35">
-        <v>10001</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="14">
-        <v>300</v>
-      </c>
-      <c r="P33" s="14">
+      <c r="T49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B50" s="37">
+        <v>51010</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0</v>
+      </c>
+      <c r="M50" s="37">
+        <v>0</v>
+      </c>
+      <c r="N50" s="35">
+        <v>0</v>
+      </c>
+      <c r="O50" s="35">
+        <v>0</v>
+      </c>
+      <c r="P50" s="35">
         <v>1</v>
       </c>
-      <c r="Q33" s="14">
-        <v>0</v>
-      </c>
-      <c r="R33" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="S33" s="35">
-        <v>100</v>
-      </c>
-      <c r="T33" s="17">
-        <v>0</v>
-      </c>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-    </row>
-    <row r="34" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="37">
-        <v>10002</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="14">
-        <v>0</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="35">
-        <v>10002</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="17">
-        <v>0</v>
-      </c>
-      <c r="O34" s="14">
-        <v>1000</v>
-      </c>
-      <c r="P34" s="14">
+      <c r="Q50" s="35">
         <v>1</v>
       </c>
-      <c r="Q34" s="14">
-        <v>0</v>
-      </c>
-      <c r="R34" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="S34" s="35">
-        <v>0</v>
-      </c>
-      <c r="T34" s="17">
-        <v>100</v>
-      </c>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-    </row>
-    <row r="35" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-    </row>
-    <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-    </row>
-    <row r="37" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37">
-        <v>30001</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="37" t="s">
+      <c r="R50" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S50" s="1">
+        <v>110</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B51" s="37">
+        <v>51011</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0</v>
+      </c>
+      <c r="I51" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="35">
-        <v>10001</v>
-      </c>
-      <c r="L37" s="37">
-        <v>0</v>
-      </c>
-      <c r="M37" s="37">
-        <v>0</v>
-      </c>
-      <c r="N37" s="35">
-        <v>0</v>
-      </c>
-      <c r="O37" s="35">
-        <v>0</v>
-      </c>
-      <c r="P37" s="35">
+      <c r="J51" s="37">
+        <v>0</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0</v>
+      </c>
+      <c r="M51" s="37">
+        <v>0</v>
+      </c>
+      <c r="N51" s="35">
+        <v>0</v>
+      </c>
+      <c r="O51" s="35">
+        <v>0</v>
+      </c>
+      <c r="P51" s="35">
         <v>1</v>
       </c>
-      <c r="Q37" s="35">
+      <c r="Q51" s="35">
         <v>1</v>
       </c>
-      <c r="R37" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="S37" s="37">
-        <v>10</v>
-      </c>
-      <c r="T37" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="U37" s="37">
+      <c r="R51" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S51" s="1">
+        <v>120</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B52" s="37">
+        <v>51012</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="37">
+        <v>0</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="37">
+        <v>0</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0</v>
+      </c>
+      <c r="M52" s="37">
+        <v>0</v>
+      </c>
+      <c r="N52" s="35">
+        <v>0</v>
+      </c>
+      <c r="O52" s="35">
+        <v>0</v>
+      </c>
+      <c r="P52" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="35">
+        <v>1</v>
+      </c>
+      <c r="R52" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S52" s="1">
+        <v>130</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B53" s="37">
+        <v>51013</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0</v>
+      </c>
+      <c r="M53" s="37">
+        <v>0</v>
+      </c>
+      <c r="N53" s="35">
+        <v>0</v>
+      </c>
+      <c r="O53" s="35">
+        <v>0</v>
+      </c>
+      <c r="P53" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="35">
+        <v>1</v>
+      </c>
+      <c r="R53" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S53" s="1">
+        <v>140</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B54" s="37">
+        <v>51014</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="37">
+        <v>0</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="37">
+        <v>0</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0</v>
+      </c>
+      <c r="M54" s="37">
+        <v>0</v>
+      </c>
+      <c r="N54" s="35">
+        <v>0</v>
+      </c>
+      <c r="O54" s="35">
+        <v>0</v>
+      </c>
+      <c r="P54" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="35">
+        <v>1</v>
+      </c>
+      <c r="R54" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S54" s="1">
+        <v>150</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U54" s="1">
         <v>1</v>
       </c>
     </row>
